--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Il3ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Il3ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Csf2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.690236</v>
       </c>
       <c r="I2">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J2">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.565006</v>
+        <v>5.1396195</v>
       </c>
       <c r="N2">
-        <v>9.130012000000001</v>
+        <v>10.279239</v>
       </c>
       <c r="O2">
-        <v>0.1855991976162183</v>
+        <v>0.2307204726989479</v>
       </c>
       <c r="P2">
-        <v>0.135471529256255</v>
+        <v>0.1721889818164019</v>
       </c>
       <c r="Q2">
-        <v>1.050310493805333</v>
+        <v>1.182516801734</v>
       </c>
       <c r="R2">
-        <v>6.301862962832</v>
+        <v>7.095100810404</v>
       </c>
       <c r="S2">
-        <v>0.09198643026737244</v>
+        <v>0.04930548873603836</v>
       </c>
       <c r="T2">
-        <v>0.08071211550830444</v>
+        <v>0.03967322831553177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.690236</v>
       </c>
       <c r="I3">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J3">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>12.493107</v>
       </c>
       <c r="O3">
-        <v>0.1693105211642336</v>
+        <v>0.1869409173525093</v>
       </c>
       <c r="P3">
-        <v>0.1853732843343496</v>
+        <v>0.2092737968300342</v>
       </c>
       <c r="Q3">
         <v>0.9581324670279999</v>
@@ -641,10 +641,10 @@
         <v>8.623192203251998</v>
       </c>
       <c r="S3">
-        <v>0.08391345786316763</v>
+        <v>0.03994969838179797</v>
       </c>
       <c r="T3">
-        <v>0.1104429101781692</v>
+        <v>0.04821776070985101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,10 +673,10 @@
         <v>0.690236</v>
       </c>
       <c r="I4">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J4">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.211893333333333</v>
+        <v>4.685485333333333</v>
       </c>
       <c r="N4">
-        <v>15.63568</v>
+        <v>14.056456</v>
       </c>
       <c r="O4">
-        <v>0.2118996603132578</v>
+        <v>0.2103341290013111</v>
       </c>
       <c r="P4">
-        <v>0.2320029240445074</v>
+        <v>0.2354616763543541</v>
       </c>
       <c r="Q4">
-        <v>1.199145468942222</v>
+        <v>1.078030218179556</v>
       </c>
       <c r="R4">
-        <v>10.79230922048</v>
+        <v>9.702271963615999</v>
       </c>
       <c r="S4">
-        <v>0.1050214310052714</v>
+        <v>0.04494888081219624</v>
       </c>
       <c r="T4">
-        <v>0.1382242225104288</v>
+        <v>0.05425158303987547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +735,10 @@
         <v>0.690236</v>
       </c>
       <c r="I5">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J5">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8288025</v>
+        <v>1.992128</v>
       </c>
       <c r="N5">
-        <v>3.657605</v>
+        <v>3.984256</v>
       </c>
       <c r="O5">
-        <v>0.07435352255802818</v>
+        <v>0.08942777064271192</v>
       </c>
       <c r="P5">
-        <v>0.05427170772232551</v>
+        <v>0.06674083401853875</v>
       </c>
       <c r="Q5">
-        <v>0.4207684407966666</v>
+        <v>0.4583461540693333</v>
       </c>
       <c r="R5">
-        <v>2.52461064478</v>
+        <v>2.750076924416</v>
       </c>
       <c r="S5">
-        <v>0.03685099507843941</v>
+        <v>0.01911091758149541</v>
       </c>
       <c r="T5">
-        <v>0.03233435369457914</v>
+        <v>0.01537743192424336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.690236</v>
       </c>
       <c r="I6">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J6">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.094997666666667</v>
+        <v>1.585220333333333</v>
       </c>
       <c r="N6">
-        <v>9.284993</v>
+        <v>4.755661</v>
       </c>
       <c r="O6">
-        <v>0.1258331497389929</v>
+        <v>0.07116145166751166</v>
       </c>
       <c r="P6">
-        <v>0.1377711443143364</v>
+        <v>0.07966274793824443</v>
       </c>
       <c r="Q6">
-        <v>0.712092936483111</v>
+        <v>0.3647253806662222</v>
       </c>
       <c r="R6">
-        <v>6.408836428348</v>
+        <v>3.282528425996</v>
       </c>
       <c r="S6">
-        <v>0.06236526020831377</v>
+        <v>0.01520736375315442</v>
       </c>
       <c r="T6">
-        <v>0.08208219523805643</v>
+        <v>0.01835470744908939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.690236</v>
       </c>
       <c r="I7">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J7">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.730975333333333</v>
+        <v>4.709569</v>
       </c>
       <c r="N7">
-        <v>17.192926</v>
+        <v>14.128707</v>
       </c>
       <c r="O7">
-        <v>0.2330039486092692</v>
+        <v>0.2114152586370083</v>
       </c>
       <c r="P7">
-        <v>0.255109410328226</v>
+        <v>0.2366719630424267</v>
       </c>
       <c r="Q7">
-        <v>1.318575163392889</v>
+        <v>1.083571356094667</v>
       </c>
       <c r="R7">
-        <v>11.867176470536</v>
+        <v>9.752142204851999</v>
       </c>
       <c r="S7">
-        <v>0.1154811106192846</v>
+        <v>0.04517992066943778</v>
       </c>
       <c r="T7">
-        <v>0.1519907563361068</v>
+        <v>0.05453043932671008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.468293</v>
       </c>
       <c r="I8">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J8">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.565006</v>
+        <v>5.1396195</v>
       </c>
       <c r="N8">
-        <v>9.130012000000001</v>
+        <v>10.279239</v>
       </c>
       <c r="O8">
-        <v>0.1855991976162183</v>
+        <v>0.2307204726989479</v>
       </c>
       <c r="P8">
-        <v>0.135471529256255</v>
+        <v>0.1721889818164019</v>
       </c>
       <c r="Q8">
-        <v>1.068880177379</v>
+        <v>1.20342391725675</v>
       </c>
       <c r="R8">
-        <v>4.275520709516001</v>
+        <v>4.813695669027</v>
       </c>
       <c r="S8">
-        <v>0.09361276734884584</v>
+        <v>0.05017721888600192</v>
       </c>
       <c r="T8">
-        <v>0.05475941374795058</v>
+        <v>0.02691643888114402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -983,10 +983,10 @@
         <v>0.468293</v>
       </c>
       <c r="I9">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J9">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.493107</v>
       </c>
       <c r="O9">
-        <v>0.1693105211642336</v>
+        <v>0.1869409173525093</v>
       </c>
       <c r="P9">
-        <v>0.1853732843343496</v>
+        <v>0.2092737968300342</v>
       </c>
       <c r="Q9">
         <v>0.9750724260585</v>
@@ -1013,10 +1013,10 @@
         <v>5.850434556351</v>
       </c>
       <c r="S9">
-        <v>0.08539706330106592</v>
+        <v>0.04065601642983122</v>
       </c>
       <c r="T9">
-        <v>0.07493037415618047</v>
+        <v>0.03271350641823704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.468293</v>
       </c>
       <c r="I10">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J10">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.211893333333333</v>
+        <v>4.685485333333333</v>
       </c>
       <c r="N10">
-        <v>15.63568</v>
+        <v>14.056456</v>
       </c>
       <c r="O10">
-        <v>0.2118996603132578</v>
+        <v>0.2103341290013111</v>
       </c>
       <c r="P10">
-        <v>0.2320029240445074</v>
+        <v>0.2354616763543541</v>
       </c>
       <c r="Q10">
-        <v>1.220346582373333</v>
+        <v>1.097089991601333</v>
       </c>
       <c r="R10">
-        <v>7.32207949424</v>
+        <v>6.582539949608001</v>
       </c>
       <c r="S10">
-        <v>0.1068782293079864</v>
+        <v>0.0457435853291899</v>
       </c>
       <c r="T10">
-        <v>0.09377870153407859</v>
+        <v>0.0368071740339426</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1107,10 +1107,10 @@
         <v>0.468293</v>
       </c>
       <c r="I11">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J11">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8288025</v>
+        <v>1.992128</v>
       </c>
       <c r="N11">
-        <v>3.657605</v>
+        <v>3.984256</v>
       </c>
       <c r="O11">
-        <v>0.07435352255802818</v>
+        <v>0.08942777064271192</v>
       </c>
       <c r="P11">
-        <v>0.05427170772232551</v>
+        <v>0.06674083401853875</v>
       </c>
       <c r="Q11">
-        <v>0.42820770456625</v>
+        <v>0.466449798752</v>
       </c>
       <c r="R11">
-        <v>1.712830818265</v>
+        <v>1.865799195008</v>
       </c>
       <c r="S11">
-        <v>0.03750252747958877</v>
+        <v>0.01944880213504779</v>
       </c>
       <c r="T11">
-        <v>0.02193735402774638</v>
+        <v>0.01043287184108</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.468293</v>
       </c>
       <c r="I12">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J12">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.094997666666667</v>
+        <v>1.585220333333333</v>
       </c>
       <c r="N12">
-        <v>9.284993</v>
+        <v>4.755661</v>
       </c>
       <c r="O12">
-        <v>0.1258331497389929</v>
+        <v>0.07116145166751166</v>
       </c>
       <c r="P12">
-        <v>0.1377711443143364</v>
+        <v>0.07966274793824443</v>
       </c>
       <c r="Q12">
-        <v>0.7246828711581667</v>
+        <v>0.3711737927788333</v>
       </c>
       <c r="R12">
-        <v>4.348097226949</v>
+        <v>2.227042756673</v>
       </c>
       <c r="S12">
-        <v>0.06346788953067911</v>
+        <v>0.01547623275384639</v>
       </c>
       <c r="T12">
-        <v>0.05568894907627995</v>
+        <v>0.01245281471186147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.468293</v>
       </c>
       <c r="I13">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J13">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.730975333333333</v>
+        <v>4.709569</v>
       </c>
       <c r="N13">
-        <v>17.192926</v>
+        <v>14.128707</v>
       </c>
       <c r="O13">
-        <v>0.2330039486092692</v>
+        <v>0.2114152586370083</v>
       </c>
       <c r="P13">
-        <v>0.255109410328226</v>
+        <v>0.2366719630424267</v>
       </c>
       <c r="Q13">
-        <v>1.341887815886333</v>
+        <v>1.1027290978585</v>
       </c>
       <c r="R13">
-        <v>8.051326895318001</v>
+        <v>6.616374587151</v>
       </c>
       <c r="S13">
-        <v>0.1175228379899846</v>
+        <v>0.04597871001379172</v>
       </c>
       <c r="T13">
-        <v>0.1031186539921193</v>
+        <v>0.036996365045612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.83722</v>
+      </c>
+      <c r="I14">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J14">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.1396195</v>
+      </c>
+      <c r="N14">
+        <v>10.279239</v>
+      </c>
+      <c r="O14">
+        <v>0.2307204726989479</v>
+      </c>
+      <c r="P14">
+        <v>0.1721889818164019</v>
+      </c>
+      <c r="Q14">
+        <v>3.14753724593</v>
+      </c>
+      <c r="R14">
+        <v>18.88522347558</v>
+      </c>
+      <c r="S14">
+        <v>0.1312377650769076</v>
+      </c>
+      <c r="T14">
+        <v>0.1055993146197261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.83722</v>
+      </c>
+      <c r="I15">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J15">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.164369</v>
+      </c>
+      <c r="N15">
+        <v>12.493107</v>
+      </c>
+      <c r="O15">
+        <v>0.1869409173525093</v>
+      </c>
+      <c r="P15">
+        <v>0.2092737968300342</v>
+      </c>
+      <c r="Q15">
+        <v>2.55028733806</v>
+      </c>
+      <c r="R15">
+        <v>22.95258604253999</v>
+      </c>
+      <c r="S15">
+        <v>0.10633520254088</v>
+      </c>
+      <c r="T15">
+        <v>0.1283425297019461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.83722</v>
+      </c>
+      <c r="I16">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J16">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.685485333333333</v>
+      </c>
+      <c r="N16">
+        <v>14.056456</v>
+      </c>
+      <c r="O16">
+        <v>0.2103341290013111</v>
+      </c>
+      <c r="P16">
+        <v>0.2354616763543541</v>
+      </c>
+      <c r="Q16">
+        <v>2.869422454702222</v>
+      </c>
+      <c r="R16">
+        <v>25.82480209232</v>
+      </c>
+      <c r="S16">
+        <v>0.119641662859925</v>
+      </c>
+      <c r="T16">
+        <v>0.1444029192805359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.83722</v>
+      </c>
+      <c r="I17">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J17">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.992128</v>
+      </c>
+      <c r="N17">
+        <v>3.984256</v>
+      </c>
+      <c r="O17">
+        <v>0.08942777064271192</v>
+      </c>
+      <c r="P17">
+        <v>0.06674083401853875</v>
+      </c>
+      <c r="Q17">
+        <v>1.219992468053333</v>
+      </c>
+      <c r="R17">
+        <v>7.319954808319999</v>
+      </c>
+      <c r="S17">
+        <v>0.05086805092616872</v>
+      </c>
+      <c r="T17">
+        <v>0.04093053025321539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.83722</v>
+      </c>
+      <c r="I18">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J18">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.585220333333333</v>
+      </c>
+      <c r="N18">
+        <v>4.755661</v>
+      </c>
+      <c r="O18">
+        <v>0.07116145166751166</v>
+      </c>
+      <c r="P18">
+        <v>0.07966274793824443</v>
+      </c>
+      <c r="Q18">
+        <v>0.9707995002688888</v>
+      </c>
+      <c r="R18">
+        <v>8.737195502419999</v>
+      </c>
+      <c r="S18">
+        <v>0.04047785516051084</v>
+      </c>
+      <c r="T18">
+        <v>0.04885522577729356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.83722</v>
+      </c>
+      <c r="I19">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J19">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.709569</v>
+      </c>
+      <c r="N19">
+        <v>14.128707</v>
+      </c>
+      <c r="O19">
+        <v>0.2114152586370083</v>
+      </c>
+      <c r="P19">
+        <v>0.2366719630424267</v>
+      </c>
+      <c r="Q19">
+        <v>2.884171452726667</v>
+      </c>
+      <c r="R19">
+        <v>25.95754307454</v>
+      </c>
+      <c r="S19">
+        <v>0.1202566279537788</v>
+      </c>
+      <c r="T19">
+        <v>0.1451451586701046</v>
       </c>
     </row>
   </sheetData>
